--- a/tests/WebVella.Tefter.Tests/Files/TemplatePlacement3.xlsx
+++ b/tests/WebVella.Tefter.Tests/Files/TemplatePlacement3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\source\WebVella.Tefter\tests\WebVella.Tefter.Tests\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E0E8A9-DF2C-4CD5-8722-EFDAB4826C32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{703A372A-6088-4020-887C-8B6FFC7289FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4284" yWindow="4080" windowWidth="35976" windowHeight="19320" xr2:uid="{249ED8D8-E4C7-4A41-9BC3-D6950499A5E0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25416" xr2:uid="{249ED8D8-E4C7-4A41-9BC3-D6950499A5E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -79,7 +79,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -107,6 +107,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -138,7 +144,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -146,11 +152,14 @@
     <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -469,7 +478,7 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -486,21 +495,18 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
+      <c r="C1" s="5"/>
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:C1"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D1">
     <cfRule type="colorScale" priority="1">
